--- a/data-raw/wyatt.multi.uniformity.xlsx
+++ b/data-raw/wyatt.multi.uniformity.xlsx
@@ -1,31 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\rpack\agridat\data-done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3D286D-7178-4E5A-8D76-D704BDFEAD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="0" windowWidth="6120" windowHeight="8988"/>
+    <workbookView xWindow="40455" yWindow="2445" windowWidth="11385" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1925" sheetId="1" r:id="rId1"/>
     <sheet name="1926" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -75,9 +87,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -115,7 +127,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -221,7 +233,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -363,23 +375,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>111</v>
       </c>
@@ -390,7 +402,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>113</v>
       </c>
@@ -401,7 +413,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>108</v>
       </c>
@@ -412,7 +424,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>91</v>
       </c>
@@ -423,7 +435,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>93</v>
       </c>
@@ -434,7 +446,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>93</v>
       </c>
@@ -445,7 +457,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>96</v>
       </c>
@@ -456,7 +468,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>99</v>
       </c>
@@ -467,7 +479,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>88</v>
       </c>
@@ -475,7 +487,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>80</v>
       </c>
@@ -483,7 +495,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>91</v>
       </c>
@@ -491,7 +503,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>88</v>
       </c>
@@ -499,7 +511,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>96</v>
       </c>
@@ -507,7 +519,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>92</v>
       </c>
@@ -518,7 +530,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>92</v>
       </c>
@@ -529,7 +541,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>75</v>
       </c>
@@ -540,7 +552,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>87</v>
       </c>
@@ -551,7 +563,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>104</v>
       </c>
@@ -562,7 +574,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>96</v>
       </c>
@@ -573,7 +585,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>98</v>
       </c>
@@ -584,7 +596,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>92</v>
       </c>
@@ -595,7 +607,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>83</v>
       </c>
@@ -606,7 +618,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>90</v>
       </c>
@@ -617,7 +629,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>101</v>
       </c>
@@ -628,7 +640,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>107</v>
       </c>
@@ -639,7 +651,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>93</v>
       </c>
@@ -650,7 +662,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>93</v>
       </c>
@@ -661,7 +673,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>89</v>
       </c>
@@ -672,7 +684,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>102</v>
       </c>
@@ -683,7 +695,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>107</v>
       </c>
@@ -694,7 +706,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>99</v>
       </c>
@@ -705,7 +717,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>108</v>
       </c>
@@ -716,7 +728,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>105</v>
       </c>
@@ -727,7 +739,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>102</v>
       </c>
@@ -738,7 +750,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>117</v>
       </c>
@@ -749,7 +761,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>127</v>
       </c>
@@ -760,7 +772,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>119</v>
       </c>
@@ -771,7 +783,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>114</v>
       </c>
@@ -782,7 +794,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>103</v>
       </c>
@@ -793,7 +805,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>77</v>
       </c>
@@ -804,7 +816,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>79</v>
       </c>
@@ -815,7 +827,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>84</v>
       </c>
@@ -826,7 +838,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>72</v>
       </c>
@@ -843,16 +855,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>95</v>
       </c>
@@ -863,7 +875,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>95</v>
       </c>
@@ -874,7 +886,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>92</v>
       </c>
@@ -885,7 +897,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>94</v>
       </c>
@@ -896,7 +908,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>93</v>
       </c>
@@ -907,7 +919,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>94</v>
       </c>
@@ -918,7 +930,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>96</v>
       </c>
@@ -929,7 +941,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>100</v>
       </c>
@@ -940,7 +952,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>105</v>
       </c>
@@ -948,7 +960,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>107</v>
       </c>
@@ -956,7 +968,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>102</v>
       </c>
@@ -964,7 +976,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>97</v>
       </c>
@@ -972,7 +984,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>99</v>
       </c>
@@ -980,7 +992,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>100</v>
       </c>
@@ -991,7 +1003,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>90</v>
       </c>
@@ -1002,7 +1014,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>104</v>
       </c>
@@ -1013,7 +1025,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>98</v>
       </c>
@@ -1024,7 +1036,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>103</v>
       </c>
@@ -1035,7 +1047,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>98</v>
       </c>
@@ -1046,7 +1058,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>94</v>
       </c>
@@ -1057,7 +1069,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>92</v>
       </c>
@@ -1068,7 +1080,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>93</v>
       </c>
@@ -1079,7 +1091,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>90</v>
       </c>
@@ -1090,7 +1102,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>90</v>
       </c>
@@ -1101,7 +1113,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>93</v>
       </c>
@@ -1112,7 +1124,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>100</v>
       </c>
@@ -1123,7 +1135,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>102</v>
       </c>
@@ -1134,7 +1146,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>109</v>
       </c>
@@ -1145,7 +1157,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>104</v>
       </c>
@@ -1156,7 +1168,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>106</v>
       </c>
@@ -1167,7 +1179,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>99</v>
       </c>
@@ -1178,7 +1190,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>98</v>
       </c>
@@ -1189,7 +1201,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>85</v>
       </c>
@@ -1200,7 +1212,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>94</v>
       </c>
@@ -1211,7 +1223,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>99</v>
       </c>
@@ -1222,7 +1234,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>102</v>
       </c>
@@ -1233,7 +1245,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>117</v>
       </c>
@@ -1244,7 +1256,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>116</v>
       </c>
@@ -1255,7 +1267,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>113</v>
       </c>
@@ -1266,7 +1278,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>109</v>
       </c>
@@ -1277,7 +1289,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>95</v>
       </c>
@@ -1288,7 +1300,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>93</v>
       </c>
@@ -1299,7 +1311,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>91</v>
       </c>
